--- a/web/tl-api/src/main/resources/static/excelModel/各国节假日币种.xlsx
+++ b/web/tl-api/src/main/resources/static/excelModel/各国节假日币种.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>国旗图片url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>国家/地区名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test/test.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>USA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -53,10 +45,6 @@
   </si>
   <si>
     <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test/test.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,72 +407,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43094</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>43094</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C3" s="1">
+        <v>42736</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42736</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/web/tl-api/src/main/resources/static/excelModel/各国节假日币种.xlsx
+++ b/web/tl-api/src/main/resources/static/excelModel/各国节假日币种.xlsx
@@ -102,7 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>43094</v>
+        <v>20171210</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -459,7 +459,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>42736</v>
+        <v>20170101</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
